--- a/data_files/miscData/world_bank_bottom20_income_share_and_population.xlsx
+++ b/data_files/miscData/world_bank_bottom20_income_share_and_population.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/econThesis/data_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/DistributionalNationalAccounts-Pakistan/data_files/miscData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982CDFF7-16FB-1649-B9C8-C56EE7FF4CDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4729A9-550F-204A-9521-C0483D3092B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -751,10 +751,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1060,7 +1061,7 @@
   <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3887,7 +3888,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4049,17 +4052,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>53</v>
       </c>
     </row>
